--- a/UIイメージ図.xlsx
+++ b/UIイメージ図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu005\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB1F53-E1FB-4701-B88D-73A16BF77892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF25BF-4442-4C75-BA03-BC53113A66ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="45" windowWidth="15930" windowHeight="10800" xr2:uid="{E31197EA-ED0B-4F51-9532-D449354A43B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{E31197EA-ED0B-4F51-9532-D449354A43B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>アバター作成画面イメージ</t>
     <rPh sb="4" eb="6">
@@ -204,6 +204,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>登録情報変更イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -8428,6 +8441,832 @@
             <a:t>00:00</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>620826</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>221116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92413A89-CBF5-4C49-9D9F-0F0E5D3BF925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="578304" y="19305134"/>
+          <a:ext cx="4175692" cy="2347232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586807</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>187099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138F1FA6-0A94-48FB-B775-9653606D48EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1964530" y="19585782"/>
+          <a:ext cx="2024063" cy="127567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>382700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="927754" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64F0186-1384-44BD-BFA6-D677AD908E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071562" y="19492232"/>
+          <a:ext cx="927754" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>578303</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>93548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>221115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6350AC3-AD4C-4806-9889-4959C500AB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1956026" y="19857923"/>
+          <a:ext cx="2024063" cy="127567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>671852</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>212612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1350947" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68F6D0D-134B-4BF5-9984-07022CDC3376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671852" y="19738862"/>
+          <a:ext cx="1350947" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在のパスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586809</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>110558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A765D6DA-AFE6-4514-A881-FD6FEDACBC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1964532" y="20113058"/>
+          <a:ext cx="2024063" cy="127567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552790</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1492012" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7555DBF1-E073-4CDF-BB34-B3BCFCF0956B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552790" y="20019509"/>
+          <a:ext cx="1492012" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変更後のパスワード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586808</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>110558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="正方形/長方形 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3F2201-B331-4B89-B5EB-EA01F5AEACE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1964531" y="20351183"/>
+          <a:ext cx="2024063" cy="127567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>25514</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1209883" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDCA970-C250-4189-8812-96923A8DA68E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="824932" y="20266139"/>
+          <a:ext cx="1209883" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527276</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>221117</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDBD8DA-9CDD-4B2A-B1D8-B333C54B1923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="527276" y="19271117"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録情報変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>569799</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>629330</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8080434F-7D79-48F3-B44B-93520DA63A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="569799" y="19551763"/>
+          <a:ext cx="4192701" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382701</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>153080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3BC3D6-A071-47A1-9A81-50FF86285801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1760424" y="20989018"/>
+          <a:ext cx="1471272" cy="357187"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F02BBD-4681-4975-8185-B5EC15FD372E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2245179" y="21023036"/>
+          <a:ext cx="466794" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変更</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8733,10 +9572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB489D-7540-44DB-98A6-7B4AA7F89D27}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8785,20 +9624,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J85" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8809,6 +9656,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D5379252AF64A748BDD859550927C367" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2116e7e1946d68e35c0eaf3b6cc07ccd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bb9ec5-9b1b-486c-a632-e2dd655875ec" xmlns:ns3="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef8a7803ea145e855fe7a4317e18dd6" ns2:_="" ns3:_="">
     <xsd:import namespace="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
@@ -9025,29 +9887,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{975CBB82-C5AA-4475-B52B-D95C16D5EBF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A1BE13-BF5F-4154-B748-1A34B97E0662}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8CED70-FF8E-45DD-88B3-D3FAE19F2A58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8CED70-FF8E-45DD-88B3-D3FAE19F2A58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A1BE13-BF5F-4154-B748-1A34B97E0662}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{975CBB82-C5AA-4475-B52B-D95C16D5EBF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67bb9ec5-9b1b-486c-a632-e2dd655875ec"/>
+    <ds:schemaRef ds:uri="3fd75491-3ac1-4e58-b8d5-9038dca3fcdc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>